--- a/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_jan-2021_tratado.xlsx
+++ b/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_jan-2021_tratado.xlsx
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1790929822</v>
+        <v>4118064729</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2002086572</v>
+        <v>2335818582</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3436617061</v>
+        <v>2814921062</v>
       </c>
     </row>
     <row r="5">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>9328868792</v>
+        <v>1819579524</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>7075903405</v>
+        <v>4284670638</v>
       </c>
     </row>
     <row r="7">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>9102601904</v>
+        <v>4007699948</v>
       </c>
     </row>
     <row r="8">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>9644731557</v>
+        <v>675049786</v>
       </c>
     </row>
     <row r="9">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>9090940973</v>
+        <v>2897436417</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4991032573</v>
+        <v>8503733736</v>
       </c>
     </row>
     <row r="11">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>9593850232</v>
+        <v>3840054418</v>
       </c>
     </row>
     <row r="12">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1462846401</v>
+        <v>667899213</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3805596243</v>
+        <v>7443536092</v>
       </c>
     </row>
     <row r="14">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5710041930</v>
+        <v>1349526130</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2262916944</v>
+        <v>5059010748</v>
       </c>
     </row>
     <row r="16">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>8659770835</v>
+        <v>9768847517</v>
       </c>
     </row>
     <row r="17">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>861312898</v>
+        <v>6475288255</v>
       </c>
     </row>
     <row r="18">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6204957150</v>
+        <v>2309492375</v>
       </c>
     </row>
     <row r="19">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>7447306769</v>
+        <v>4595715970</v>
       </c>
     </row>
     <row r="20">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5064554176</v>
+        <v>5028851660</v>
       </c>
     </row>
     <row r="21">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>13008957</v>
+        <v>6543162811</v>
       </c>
     </row>
     <row r="22">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9953254346</v>
+        <v>7895506139</v>
       </c>
     </row>
     <row r="23">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>6328955271</v>
+        <v>6149451212</v>
       </c>
     </row>
     <row r="24">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3124978827</v>
+        <v>227180909</v>
       </c>
     </row>
     <row r="25">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5333674803</v>
+        <v>6523414136</v>
       </c>
     </row>
     <row r="26">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>5756489011</v>
+        <v>1667487587</v>
       </c>
     </row>
     <row r="27">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4842744568</v>
+        <v>4842585881</v>
       </c>
     </row>
     <row r="28">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>479914869</v>
+        <v>6429331795</v>
       </c>
     </row>
     <row r="29">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>8413861924</v>
+        <v>8592227961</v>
       </c>
     </row>
     <row r="30">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2174613155</v>
+        <v>2433407283</v>
       </c>
     </row>
     <row r="31">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1188665060</v>
+        <v>6041754688</v>
       </c>
     </row>
     <row r="32">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>6994505513</v>
+        <v>2714672762</v>
       </c>
     </row>
     <row r="33">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1944957022</v>
+        <v>8491931413</v>
       </c>
     </row>
     <row r="34">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1331981775</v>
+        <v>5014513397</v>
       </c>
     </row>
     <row r="35">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>7083712164</v>
+        <v>2840598792</v>
       </c>
     </row>
     <row r="36">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>9677048781</v>
+        <v>6101983730</v>
       </c>
     </row>
     <row r="37">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4680865788</v>
+        <v>6715167891</v>
       </c>
     </row>
     <row r="38">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2608536651</v>
+        <v>8258179866</v>
       </c>
     </row>
     <row r="39">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1285524915</v>
+        <v>4212244307</v>
       </c>
     </row>
     <row r="40">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5753301318</v>
+        <v>3314005458</v>
       </c>
     </row>
     <row r="41">
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>6462061491</v>
+        <v>1323855350</v>
       </c>
     </row>
     <row r="42">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>7842796081</v>
+        <v>2160762476</v>
       </c>
     </row>
     <row r="43">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>6371924551</v>
+        <v>4522984990</v>
       </c>
     </row>
     <row r="44">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2116350478</v>
+        <v>642578537</v>
       </c>
     </row>
     <row r="45">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4104231326</v>
+        <v>2694313160</v>
       </c>
     </row>
     <row r="46">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2335046931</v>
+        <v>9858299459</v>
       </c>
     </row>
     <row r="47">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4560710792</v>
+        <v>305112323</v>
       </c>
     </row>
     <row r="48">
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>8941782635</v>
+        <v>3000898395</v>
       </c>
     </row>
     <row r="49">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>9981520794</v>
+        <v>7319727538</v>
       </c>
     </row>
     <row r="50">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>8064125868</v>
+        <v>8292498970</v>
       </c>
     </row>
     <row r="51">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>775447911</v>
+        <v>6666772611</v>
       </c>
     </row>
     <row r="52">
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3560018147</v>
+        <v>9994621554</v>
       </c>
     </row>
     <row r="53">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>7970203029</v>
+        <v>4644393283</v>
       </c>
     </row>
     <row r="54">
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1668918220</v>
+        <v>4096130327</v>
       </c>
     </row>
     <row r="55">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2998393936</v>
+        <v>7511297959</v>
       </c>
     </row>
     <row r="56">
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>9134791977</v>
+        <v>8070418009</v>
       </c>
     </row>
     <row r="57">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2450016419</v>
+        <v>6474004410</v>
       </c>
     </row>
     <row r="58">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3604113001</v>
+        <v>2985359036</v>
       </c>
     </row>
     <row r="59">
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2203976855</v>
+        <v>6609467586</v>
       </c>
     </row>
     <row r="60">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>7598864291</v>
+        <v>2994229931</v>
       </c>
     </row>
     <row r="61">
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>6794500422</v>
+        <v>728328462</v>
       </c>
     </row>
     <row r="62">
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1140661424</v>
+        <v>8656986986</v>
       </c>
     </row>
     <row r="63">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3806274268</v>
+        <v>9600804896</v>
       </c>
     </row>
     <row r="64">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>9095529584</v>
+        <v>1093494423</v>
       </c>
     </row>
     <row r="65">
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>5796035773</v>
+        <v>4425267992</v>
       </c>
     </row>
     <row r="66">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>6369789432</v>
+        <v>4204896313</v>
       </c>
     </row>
     <row r="67">
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>6566748426</v>
+        <v>486410785</v>
       </c>
     </row>
     <row r="68">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1156940216</v>
+        <v>7219508522</v>
       </c>
     </row>
     <row r="69">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3901257670</v>
+        <v>5184796472</v>
       </c>
     </row>
     <row r="70">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>6115310590</v>
+        <v>6891368631</v>
       </c>
     </row>
     <row r="71">
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3962395127</v>
+        <v>5233342332</v>
       </c>
     </row>
     <row r="72">
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4930321866</v>
+        <v>4684268389</v>
       </c>
     </row>
     <row r="73">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>9452211690</v>
+        <v>9755331596</v>
       </c>
     </row>
     <row r="74">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6505345736</v>
+        <v>5404155721</v>
       </c>
     </row>
     <row r="75">
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>6946357530</v>
+        <v>9944279680</v>
       </c>
     </row>
     <row r="76">
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6440618497</v>
+        <v>1402137650</v>
       </c>
     </row>
     <row r="77">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>9217221965</v>
+        <v>7872009036</v>
       </c>
     </row>
     <row r="78">
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>948114869</v>
+        <v>2930034034</v>
       </c>
     </row>
     <row r="79">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1126927685</v>
+        <v>8565137017</v>
       </c>
     </row>
     <row r="80">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>464136376</v>
+        <v>7716523751</v>
       </c>
     </row>
     <row r="81">
@@ -4363,7 +4363,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>249809590</v>
+        <v>3517272126</v>
       </c>
     </row>
     <row r="82">
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4037311711</v>
+        <v>550644220</v>
       </c>
     </row>
     <row r="83">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>9158205053</v>
+        <v>5459286334</v>
       </c>
     </row>
     <row r="84">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>7300807462</v>
+        <v>672239816</v>
       </c>
     </row>
     <row r="85">
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>943668512</v>
+        <v>3581001514</v>
       </c>
     </row>
     <row r="86">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>9465331554</v>
+        <v>6094372067</v>
       </c>
     </row>
     <row r="87">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1248068227</v>
+        <v>3404916555</v>
       </c>
     </row>
     <row r="88">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>9592079097</v>
+        <v>8162004303</v>
       </c>
     </row>
     <row r="89">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>6692332287</v>
+        <v>9661029740</v>
       </c>
     </row>
     <row r="90">
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1872685519</v>
+        <v>3368850072</v>
       </c>
     </row>
     <row r="91">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1788186627</v>
+        <v>8256398976</v>
       </c>
     </row>
     <row r="92">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3282928922</v>
+        <v>5926489184</v>
       </c>
     </row>
     <row r="93">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1142779745</v>
+        <v>3516358181</v>
       </c>
     </row>
     <row r="94">
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>6616099933</v>
+        <v>8232575949</v>
       </c>
     </row>
     <row r="95">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>8502147697</v>
+        <v>5601054648</v>
       </c>
     </row>
     <row r="96">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>498001754</v>
+        <v>1347097234</v>
       </c>
     </row>
     <row r="97">
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2876628753</v>
+        <v>6897738812</v>
       </c>
     </row>
     <row r="98">
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>325011515</v>
+        <v>4373151743</v>
       </c>
     </row>
     <row r="99">
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6690778415</v>
+        <v>1697865919</v>
       </c>
     </row>
     <row r="100">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>9650593945</v>
+        <v>2844765677</v>
       </c>
     </row>
     <row r="101">
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>378635839</v>
+        <v>9294355155</v>
       </c>
     </row>
     <row r="102">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3152833221</v>
+        <v>1882008759</v>
       </c>
     </row>
     <row r="103">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2675674162</v>
+        <v>2764403295</v>
       </c>
     </row>
     <row r="104">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4380109405</v>
+        <v>6017647381</v>
       </c>
     </row>
     <row r="105">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>6786263709</v>
+        <v>2185411539</v>
       </c>
     </row>
     <row r="106">
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4468443364</v>
+        <v>7077074262</v>
       </c>
     </row>
     <row r="107">
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>8141885903</v>
+        <v>7981339321</v>
       </c>
     </row>
     <row r="108">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>6344963734</v>
+        <v>1678493160</v>
       </c>
     </row>
     <row r="109">
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>8316271192</v>
+        <v>378848586</v>
       </c>
     </row>
     <row r="110">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>5933849840</v>
+        <v>4594753212</v>
       </c>
     </row>
     <row r="111">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1833019617</v>
+        <v>6478788167</v>
       </c>
     </row>
     <row r="112">
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>9349569038</v>
+        <v>2973765021</v>
       </c>
     </row>
     <row r="113">
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1468270091</v>
+        <v>2585736132</v>
       </c>
     </row>
     <row r="114">
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>9984073945</v>
+        <v>2631745908</v>
       </c>
     </row>
     <row r="115">
@@ -5999,7 +5999,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>293835407</v>
+        <v>7462216384</v>
       </c>
     </row>
     <row r="116">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1541200086</v>
+        <v>4843645221</v>
       </c>
     </row>
     <row r="117">
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>8630324458</v>
+        <v>7316637278</v>
       </c>
     </row>
     <row r="118">
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>822747934</v>
+        <v>7422950289</v>
       </c>
     </row>
     <row r="119">
@@ -6191,7 +6191,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>9272365484</v>
+        <v>9947978204</v>
       </c>
     </row>
     <row r="120">
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4467042649</v>
+        <v>6567756235</v>
       </c>
     </row>
     <row r="121">
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>968897476</v>
+        <v>9297659097</v>
       </c>
     </row>
     <row r="122">
@@ -6335,7 +6335,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>6990789684</v>
+        <v>555159630</v>
       </c>
     </row>
     <row r="123">
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>5732053389</v>
+        <v>732905207</v>
       </c>
     </row>
     <row r="124">
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>4688598533</v>
+        <v>1053541258</v>
       </c>
     </row>
     <row r="125">
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1773425909</v>
+        <v>5742282286</v>
       </c>
     </row>
     <row r="126">
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>8023116642</v>
+        <v>377320720</v>
       </c>
     </row>
     <row r="127">
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>7685554580</v>
+        <v>4059631375</v>
       </c>
     </row>
     <row r="128">
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>6909695963</v>
+        <v>6035293606</v>
       </c>
     </row>
     <row r="129">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>7493328334</v>
+        <v>881389304</v>
       </c>
     </row>
     <row r="130">
@@ -6719,7 +6719,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1210039031</v>
+        <v>5284624144</v>
       </c>
     </row>
     <row r="131">
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4170943403</v>
+        <v>5663069811</v>
       </c>
     </row>
     <row r="132">
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>9098087969</v>
+        <v>1596580249</v>
       </c>
     </row>
     <row r="133">
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>9519337148</v>
+        <v>9636069831</v>
       </c>
     </row>
     <row r="134">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2970851835</v>
+        <v>326480159</v>
       </c>
     </row>
     <row r="135">
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>573527119</v>
+        <v>9062096929</v>
       </c>
     </row>
     <row r="136">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>7548635049</v>
+        <v>2553396279</v>
       </c>
     </row>
     <row r="137">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>9898934937</v>
+        <v>242535493</v>
       </c>
     </row>
     <row r="138">
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>6554181462</v>
+        <v>8568530554</v>
       </c>
     </row>
     <row r="139">
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2099076084</v>
+        <v>6713653981</v>
       </c>
     </row>
     <row r="140">
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>4442165081</v>
+        <v>1537232464</v>
       </c>
     </row>
     <row r="141">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>8962816206</v>
+        <v>7769667404</v>
       </c>
     </row>
     <row r="142">
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>6517075932</v>
+        <v>5997939767</v>
       </c>
     </row>
     <row r="143">
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2958645540</v>
+        <v>5076516026</v>
       </c>
     </row>
     <row r="144">
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4091789671</v>
+        <v>5201764544</v>
       </c>
     </row>
     <row r="145">
@@ -7439,7 +7439,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>5722183421</v>
+        <v>7971800195</v>
       </c>
     </row>
     <row r="146">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2770898060</v>
+        <v>1335920919</v>
       </c>
     </row>
     <row r="147">
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3794168763</v>
+        <v>2727685310</v>
       </c>
     </row>
     <row r="148">
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1091814538</v>
+        <v>7063301492</v>
       </c>
     </row>
     <row r="149">
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>847793971</v>
+        <v>5125721810</v>
       </c>
     </row>
     <row r="150">
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1080049898</v>
+        <v>4495607523</v>
       </c>
     </row>
     <row r="151">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1055590861</v>
+        <v>1662035646</v>
       </c>
     </row>
     <row r="152">
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>7229128841</v>
+        <v>9682659763</v>
       </c>
     </row>
     <row r="153">
@@ -7823,7 +7823,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>5948550812</v>
+        <v>5527504160</v>
       </c>
     </row>
     <row r="154">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2032292460</v>
+        <v>3679644244</v>
       </c>
     </row>
     <row r="155">
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>6600330849</v>
+        <v>1052757094</v>
       </c>
     </row>
     <row r="156">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2576746846</v>
+        <v>4112558363</v>
       </c>
     </row>
     <row r="157">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>5775507309</v>
+        <v>976269665</v>
       </c>
     </row>
     <row r="158">
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2598752805</v>
+        <v>1615073255</v>
       </c>
     </row>
     <row r="159">
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1750972714</v>
+        <v>9642228547</v>
       </c>
     </row>
     <row r="160">
@@ -8159,7 +8159,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1632222510</v>
+        <v>5753668237</v>
       </c>
     </row>
     <row r="161">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1139507418</v>
+        <v>7432837633</v>
       </c>
     </row>
     <row r="162">
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>6347338127</v>
+        <v>9899505571</v>
       </c>
     </row>
     <row r="163">
@@ -8303,7 +8303,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>7789935659</v>
+        <v>9482993542</v>
       </c>
     </row>
     <row r="164">
@@ -8351,7 +8351,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>5462425119</v>
+        <v>9086183593</v>
       </c>
     </row>
     <row r="165">
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4886936652</v>
+        <v>6707960913</v>
       </c>
     </row>
     <row r="166">
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>8041321673</v>
+        <v>419446602</v>
       </c>
     </row>
     <row r="167">
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>7714034005</v>
+        <v>6328232910</v>
       </c>
     </row>
     <row r="168">
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3791526064</v>
+        <v>2237350253</v>
       </c>
     </row>
     <row r="169">
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2412575486</v>
+        <v>1706419544</v>
       </c>
     </row>
     <row r="170">
@@ -8639,7 +8639,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>9300997437</v>
+        <v>6127406951</v>
       </c>
     </row>
     <row r="171">
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>4203410993</v>
+        <v>6622125297</v>
       </c>
     </row>
     <row r="172">
@@ -8735,7 +8735,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>8776438165</v>
+        <v>1810920092</v>
       </c>
     </row>
     <row r="173">
@@ -8783,7 +8783,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3413619937</v>
+        <v>5177753253</v>
       </c>
     </row>
     <row r="174">
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>8757318996</v>
+        <v>8635052634</v>
       </c>
     </row>
     <row r="175">
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4700325842</v>
+        <v>4705066154</v>
       </c>
     </row>
     <row r="176">
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3987630913</v>
+        <v>5360378854</v>
       </c>
     </row>
     <row r="177">
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3886573842</v>
+        <v>2790520225</v>
       </c>
     </row>
     <row r="178">
@@ -9023,7 +9023,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3969131422</v>
+        <v>4736654839</v>
       </c>
     </row>
     <row r="179">
@@ -9073,7 +9073,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>5021250278</v>
+        <v>766770364</v>
       </c>
     </row>
     <row r="180">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1282496448</v>
+        <v>6086610138</v>
       </c>
     </row>
     <row r="181">
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>4514533937</v>
+        <v>2281873092</v>
       </c>
     </row>
     <row r="182">
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>4800177631</v>
+        <v>3454307644</v>
       </c>
     </row>
     <row r="183">
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>8656294610</v>
+        <v>6651181565</v>
       </c>
     </row>
     <row r="184">
@@ -9313,7 +9313,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3590945232</v>
+        <v>6467810135</v>
       </c>
     </row>
     <row r="185">
@@ -9361,7 +9361,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>9255096544</v>
+        <v>5885078109</v>
       </c>
     </row>
     <row r="186">
@@ -9409,7 +9409,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>9357797623</v>
+        <v>2358890710</v>
       </c>
     </row>
     <row r="187">
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2601332129</v>
+        <v>4817672413</v>
       </c>
     </row>
     <row r="188">
@@ -9505,7 +9505,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1513948481</v>
+        <v>1671440179</v>
       </c>
     </row>
     <row r="189">
@@ -9553,7 +9553,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2894175487</v>
+        <v>1318305583</v>
       </c>
     </row>
     <row r="190">
@@ -9601,7 +9601,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3476695166</v>
+        <v>4383777396</v>
       </c>
     </row>
     <row r="191">
@@ -9649,7 +9649,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>4416228978</v>
+        <v>7947033420</v>
       </c>
     </row>
     <row r="192">
@@ -9697,7 +9697,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>78965460</v>
+        <v>6093988888</v>
       </c>
     </row>
     <row r="193">
@@ -9745,7 +9745,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1888185577</v>
+        <v>8100126303</v>
       </c>
     </row>
     <row r="194">
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>8248426511</v>
+        <v>7240344243</v>
       </c>
     </row>
     <row r="195">
@@ -9841,7 +9841,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2879353613</v>
+        <v>5928632593</v>
       </c>
     </row>
     <row r="196">
@@ -9889,7 +9889,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2189274369</v>
+        <v>6919013337</v>
       </c>
     </row>
     <row r="197">
@@ -9937,7 +9937,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>8285601159</v>
+        <v>2576331761</v>
       </c>
     </row>
     <row r="198">
@@ -9985,7 +9985,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>613351525</v>
+        <v>4498665826</v>
       </c>
     </row>
     <row r="199">
@@ -10033,7 +10033,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>7450024457</v>
+        <v>4504758794</v>
       </c>
     </row>
     <row r="200">
@@ -10081,7 +10081,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3218204803</v>
+        <v>8104548049</v>
       </c>
     </row>
     <row r="201">
@@ -10129,7 +10129,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>930445356</v>
+        <v>8881385126</v>
       </c>
     </row>
     <row r="202">
@@ -10177,7 +10177,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>5337283755</v>
+        <v>7462620711</v>
       </c>
     </row>
     <row r="203">
@@ -10225,7 +10225,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>5247383253</v>
+        <v>2798109861</v>
       </c>
     </row>
     <row r="204">
@@ -10273,7 +10273,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>8003000204</v>
+        <v>5933087999</v>
       </c>
     </row>
     <row r="205">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3957043219</v>
+        <v>8230051162</v>
       </c>
     </row>
     <row r="206">
@@ -10369,7 +10369,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>5264819233</v>
+        <v>9655351525</v>
       </c>
     </row>
     <row r="207">
@@ -10417,7 +10417,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>7890214477</v>
+        <v>301745744</v>
       </c>
     </row>
     <row r="208">
@@ -10465,7 +10465,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>381247405</v>
+        <v>7649382468</v>
       </c>
     </row>
     <row r="209">
@@ -10513,7 +10513,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>5428143274</v>
+        <v>1362656456</v>
       </c>
     </row>
     <row r="210">
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>7446482856</v>
+        <v>4815841222</v>
       </c>
     </row>
     <row r="211">
@@ -10609,7 +10609,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>8882838684</v>
+        <v>9781646476</v>
       </c>
     </row>
     <row r="212">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2940727505</v>
+        <v>2503525326</v>
       </c>
     </row>
     <row r="213">
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1715665464</v>
+        <v>427836529</v>
       </c>
     </row>
     <row r="214">
@@ -10753,7 +10753,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>2863183976</v>
+        <v>3782776071</v>
       </c>
     </row>
     <row r="215">
@@ -10801,7 +10801,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>5306638171</v>
+        <v>1725268118</v>
       </c>
     </row>
     <row r="216">
@@ -10849,7 +10849,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>6581093907</v>
+        <v>1017719976</v>
       </c>
     </row>
     <row r="217">
@@ -10897,7 +10897,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>6160112764</v>
+        <v>7143439243</v>
       </c>
     </row>
     <row r="218">
@@ -10945,7 +10945,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>2855347706</v>
+        <v>4070733574</v>
       </c>
     </row>
     <row r="219">
@@ -10993,7 +10993,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3306664819</v>
+        <v>3673184623</v>
       </c>
     </row>
     <row r="220">
@@ -11041,7 +11041,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>5398881866</v>
+        <v>7840880099</v>
       </c>
     </row>
     <row r="221">
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1775631003</v>
+        <v>3721560966</v>
       </c>
     </row>
     <row r="222">
@@ -11137,7 +11137,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>9408809185</v>
+        <v>4451570200</v>
       </c>
     </row>
     <row r="223">
@@ -11185,7 +11185,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>666978587</v>
+        <v>5675786221</v>
       </c>
     </row>
     <row r="224">
@@ -11233,7 +11233,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>4756948991</v>
+        <v>1730342606</v>
       </c>
     </row>
     <row r="225">
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>4254583612</v>
+        <v>6416477266</v>
       </c>
     </row>
     <row r="226">
@@ -11329,7 +11329,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>4094364324</v>
+        <v>2789920158</v>
       </c>
     </row>
     <row r="227">
@@ -11377,7 +11377,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1287666563</v>
+        <v>8791660177</v>
       </c>
     </row>
     <row r="228">
@@ -11425,7 +11425,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>204985132</v>
+        <v>783817257</v>
       </c>
     </row>
     <row r="229">
@@ -11473,7 +11473,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>6553730138</v>
+        <v>3500493209</v>
       </c>
     </row>
     <row r="230">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4746240575</v>
+        <v>7656122885</v>
       </c>
     </row>
     <row r="231">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>4961951097</v>
+        <v>7361296897</v>
       </c>
     </row>
     <row r="232">
@@ -11619,7 +11619,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1348752442</v>
+        <v>5532386856</v>
       </c>
     </row>
     <row r="233">
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>8882456931</v>
+        <v>9197565514</v>
       </c>
     </row>
     <row r="234">
@@ -11715,7 +11715,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>9439828618</v>
+        <v>7068902402</v>
       </c>
     </row>
     <row r="235">
@@ -11763,7 +11763,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>319494368</v>
+        <v>3059871030</v>
       </c>
     </row>
     <row r="236">
@@ -11811,7 +11811,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>7640795530</v>
+        <v>562273821</v>
       </c>
     </row>
     <row r="237">
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>5046410026</v>
+        <v>4406503671</v>
       </c>
     </row>
     <row r="238">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>6525017040</v>
+        <v>6167067057</v>
       </c>
     </row>
     <row r="239">
@@ -11955,7 +11955,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>6349253391</v>
+        <v>2109601866</v>
       </c>
     </row>
     <row r="240">
@@ -12003,7 +12003,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>5504595728</v>
+        <v>6322281525</v>
       </c>
     </row>
     <row r="241">
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>3125208064</v>
+        <v>960308490</v>
       </c>
     </row>
     <row r="242">
@@ -12099,7 +12099,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>6026531265</v>
+        <v>2024388137</v>
       </c>
     </row>
     <row r="243">
@@ -12147,7 +12147,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3342434996</v>
+        <v>906186155</v>
       </c>
     </row>
     <row r="244">
@@ -12195,7 +12195,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>597470768</v>
+        <v>4441589427</v>
       </c>
     </row>
     <row r="245">
@@ -12243,7 +12243,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>9560531659</v>
+        <v>8589249867</v>
       </c>
     </row>
     <row r="246">
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>8513286053</v>
+        <v>7169869825</v>
       </c>
     </row>
     <row r="247">
@@ -12339,7 +12339,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>6273590185</v>
+        <v>1891896864</v>
       </c>
     </row>
     <row r="248">
@@ -12387,7 +12387,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>9143144536</v>
+        <v>4869405879</v>
       </c>
     </row>
     <row r="249">
@@ -12435,7 +12435,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>6134560646</v>
+        <v>2208469615</v>
       </c>
     </row>
     <row r="250">
@@ -12483,7 +12483,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1439936742</v>
+        <v>8683028491</v>
       </c>
     </row>
     <row r="251">
@@ -12531,7 +12531,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1122895070</v>
+        <v>8820077689</v>
       </c>
     </row>
     <row r="252">
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3514711914</v>
+        <v>4688274886</v>
       </c>
     </row>
     <row r="253">
@@ -12627,7 +12627,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>937375604</v>
+        <v>7677282660</v>
       </c>
     </row>
     <row r="254">
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>495840986</v>
+        <v>3649908454</v>
       </c>
     </row>
     <row r="255">
@@ -12725,7 +12725,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3829266257</v>
+        <v>3702258701</v>
       </c>
     </row>
     <row r="256">
@@ -12773,7 +12773,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>7323975171</v>
+        <v>7942342262</v>
       </c>
     </row>
     <row r="257">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>8461461411</v>
+        <v>7798044981</v>
       </c>
     </row>
     <row r="258">
@@ -12869,7 +12869,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>9804259067</v>
+        <v>7808507231</v>
       </c>
     </row>
     <row r="259">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>4138137051</v>
+        <v>9268262180</v>
       </c>
     </row>
     <row r="260">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>8148411580</v>
+        <v>4702048272</v>
       </c>
     </row>
     <row r="261">
@@ -13015,7 +13015,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>2512198720</v>
+        <v>9489571503</v>
       </c>
     </row>
     <row r="262">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>9485288354</v>
+        <v>4710524133</v>
       </c>
     </row>
     <row r="263">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>5834972939</v>
+        <v>8455204741</v>
       </c>
     </row>
     <row r="264">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>4022031168</v>
+        <v>7777571403</v>
       </c>
     </row>
     <row r="265">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3467047754</v>
+        <v>9525521231</v>
       </c>
     </row>
     <row r="266">
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>9054481894</v>
+        <v>2774989492</v>
       </c>
     </row>
     <row r="267">
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>885440236</v>
+        <v>8281989726</v>
       </c>
     </row>
     <row r="268">
@@ -13351,7 +13351,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>2347990479</v>
+        <v>2898608472</v>
       </c>
     </row>
     <row r="269">
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>6672425781</v>
+        <v>6910945299</v>
       </c>
     </row>
     <row r="270">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1669949221</v>
+        <v>5203260375</v>
       </c>
     </row>
     <row r="271">
@@ -13495,7 +13495,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>2993196004</v>
+        <v>3818712262</v>
       </c>
     </row>
     <row r="272">
@@ -13543,7 +13543,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>4187834103</v>
+        <v>8008411767</v>
       </c>
     </row>
     <row r="273">
@@ -13591,7 +13591,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>9879585460</v>
+        <v>6208137327</v>
       </c>
     </row>
     <row r="274">
@@ -13639,7 +13639,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1277879413</v>
+        <v>4798590432</v>
       </c>
     </row>
     <row r="275">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>8116629079</v>
+        <v>2791448479</v>
       </c>
     </row>
     <row r="276">
@@ -13735,7 +13735,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>6773824135</v>
+        <v>992819752</v>
       </c>
     </row>
     <row r="277">
@@ -13783,7 +13783,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1722675358</v>
+        <v>9914900816</v>
       </c>
     </row>
     <row r="278">
@@ -13831,7 +13831,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>8926820457</v>
+        <v>9925172913</v>
       </c>
     </row>
     <row r="279">
@@ -13879,7 +13879,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3692473489</v>
+        <v>8740168997</v>
       </c>
     </row>
     <row r="280">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>9068812554</v>
+        <v>1011930513</v>
       </c>
     </row>
     <row r="281">
@@ -13975,7 +13975,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>4987240361</v>
+        <v>9864821716</v>
       </c>
     </row>
     <row r="282">
@@ -14023,7 +14023,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>6296124969</v>
+        <v>3321761742</v>
       </c>
     </row>
     <row r="283">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>8832268137</v>
+        <v>5946613480</v>
       </c>
     </row>
     <row r="284">
@@ -14119,7 +14119,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>2640354313</v>
+        <v>6515387100</v>
       </c>
     </row>
     <row r="285">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>7316203108</v>
+        <v>6746637148</v>
       </c>
     </row>
     <row r="286">
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>8662134537</v>
+        <v>4723987877</v>
       </c>
     </row>
     <row r="287">
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1894640095</v>
+        <v>6110655563</v>
       </c>
     </row>
     <row r="288">
@@ -14311,7 +14311,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>141676496</v>
+        <v>5667009146</v>
       </c>
     </row>
     <row r="289">
@@ -14359,7 +14359,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>5930342665</v>
+        <v>4087804146</v>
       </c>
     </row>
     <row r="290">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>5924506872</v>
+        <v>5642197813</v>
       </c>
     </row>
     <row r="291">
@@ -14455,7 +14455,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>7592908126</v>
+        <v>6823962714</v>
       </c>
     </row>
     <row r="292">
@@ -14503,7 +14503,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>8614402659</v>
+        <v>432141511</v>
       </c>
     </row>
     <row r="293">
@@ -14551,7 +14551,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>790677712</v>
+        <v>8065680005</v>
       </c>
     </row>
     <row r="294">
@@ -14599,7 +14599,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>4646272560</v>
+        <v>3396598083</v>
       </c>
     </row>
     <row r="295">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>5532554309</v>
+        <v>2489444461</v>
       </c>
     </row>
     <row r="296">
@@ -14695,7 +14695,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>9256402912</v>
+        <v>8677441133</v>
       </c>
     </row>
     <row r="297">
@@ -14743,7 +14743,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>7371625096</v>
+        <v>395571228</v>
       </c>
     </row>
     <row r="298">
@@ -14791,7 +14791,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>6164723159</v>
+        <v>4047921151</v>
       </c>
     </row>
     <row r="299">
@@ -14839,7 +14839,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>2932009096</v>
+        <v>5343122402</v>
       </c>
     </row>
     <row r="300">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>2426309426</v>
+        <v>7419681793</v>
       </c>
     </row>
     <row r="301">
@@ -14935,7 +14935,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>9985106871</v>
+        <v>941341646</v>
       </c>
     </row>
     <row r="302">
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>8374704018</v>
+        <v>9073118493</v>
       </c>
     </row>
     <row r="303">
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>683060110</v>
+        <v>9670855519</v>
       </c>
     </row>
     <row r="304">
@@ -15081,7 +15081,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>5160544316</v>
+        <v>9800893899</v>
       </c>
     </row>
     <row r="305">
@@ -15129,7 +15129,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>7896513211</v>
+        <v>1779144661</v>
       </c>
     </row>
     <row r="306">
@@ -15177,7 +15177,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3168123605</v>
+        <v>6087968619</v>
       </c>
     </row>
     <row r="307">
@@ -15225,7 +15225,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>1030107524</v>
+        <v>5291334174</v>
       </c>
     </row>
     <row r="308">
@@ -15273,7 +15273,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>6850926208</v>
+        <v>5927590298</v>
       </c>
     </row>
     <row r="309">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>4431754460</v>
+        <v>5348092121</v>
       </c>
     </row>
     <row r="310">
@@ -15369,7 +15369,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>880808847</v>
+        <v>8784666342</v>
       </c>
     </row>
     <row r="311">
@@ -15417,7 +15417,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>7501535395</v>
+        <v>3036858352</v>
       </c>
     </row>
     <row r="312">
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1319069526</v>
+        <v>7625006813</v>
       </c>
     </row>
     <row r="313">
@@ -15513,7 +15513,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3159424978</v>
+        <v>9914892005</v>
       </c>
     </row>
     <row r="314">
@@ -15561,7 +15561,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>313494427</v>
+        <v>6463760620</v>
       </c>
     </row>
     <row r="315">
@@ -15609,7 +15609,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>8076204615</v>
+        <v>5176553790</v>
       </c>
     </row>
     <row r="316">
@@ -15657,7 +15657,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>1498919487</v>
+        <v>3092471315</v>
       </c>
     </row>
     <row r="317">
@@ -15705,7 +15705,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>9713777788</v>
+        <v>5278123481</v>
       </c>
     </row>
     <row r="318">
@@ -15753,7 +15753,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>8606888591</v>
+        <v>5739177021</v>
       </c>
     </row>
     <row r="319">
@@ -15801,7 +15801,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>9114058513</v>
+        <v>6671412834</v>
       </c>
     </row>
     <row r="320">
@@ -15849,7 +15849,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>9551266341</v>
+        <v>9318865049</v>
       </c>
     </row>
     <row r="321">
@@ -15897,7 +15897,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>9453913266</v>
+        <v>2744265210</v>
       </c>
     </row>
     <row r="322">
@@ -15945,7 +15945,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>2387676270</v>
+        <v>8054126786</v>
       </c>
     </row>
     <row r="323">
@@ -15993,7 +15993,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>2170153793</v>
+        <v>7866600753</v>
       </c>
     </row>
     <row r="324">
@@ -16041,7 +16041,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>2792647588</v>
+        <v>6136931862</v>
       </c>
     </row>
     <row r="325">
@@ -16089,7 +16089,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>2191485386</v>
+        <v>8375385340</v>
       </c>
     </row>
     <row r="326">
@@ -16137,7 +16137,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>2408020351</v>
+        <v>9030762053</v>
       </c>
     </row>
     <row r="327">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>2180229043</v>
+        <v>6348766601</v>
       </c>
     </row>
     <row r="328">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>7482619362</v>
+        <v>9836299840</v>
       </c>
     </row>
     <row r="329">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>742867379</v>
+        <v>3499558442</v>
       </c>
     </row>
     <row r="330">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>8054467538</v>
+        <v>9951382720</v>
       </c>
     </row>
     <row r="331">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>3614798228</v>
+        <v>9647986197</v>
       </c>
     </row>
     <row r="332">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>5377842367</v>
+        <v>361262546</v>
       </c>
     </row>
     <row r="333">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1608527826</v>
+        <v>1602787856</v>
       </c>
     </row>
     <row r="334">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>4109176304</v>
+        <v>126016286</v>
       </c>
     </row>
     <row r="335">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>634869454</v>
+        <v>7463241390</v>
       </c>
     </row>
     <row r="336">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>8926835274</v>
+        <v>8858445159</v>
       </c>
     </row>
     <row r="337">
@@ -16669,7 +16669,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1233919111</v>
+        <v>5314025916</v>
       </c>
     </row>
     <row r="338">
@@ -16717,7 +16717,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>4340048869</v>
+        <v>9779885997</v>
       </c>
     </row>
     <row r="339">
@@ -16765,7 +16765,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>347996488</v>
+        <v>620793526</v>
       </c>
     </row>
     <row r="340">
@@ -16813,7 +16813,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>371988191</v>
+        <v>2052792133</v>
       </c>
     </row>
     <row r="341">
@@ -16861,7 +16861,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>5566958860</v>
+        <v>3278314525</v>
       </c>
     </row>
     <row r="342">
@@ -16909,7 +16909,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>3572350403</v>
+        <v>6963442766</v>
       </c>
     </row>
     <row r="343">
@@ -16957,7 +16957,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>1695693982</v>
+        <v>9378731709</v>
       </c>
     </row>
     <row r="344">
@@ -17005,7 +17005,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>1518635059</v>
+        <v>2577215092</v>
       </c>
     </row>
     <row r="345">
@@ -17053,7 +17053,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>69907255</v>
+        <v>6889396785</v>
       </c>
     </row>
     <row r="346">
@@ -17101,7 +17101,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>6081695879</v>
+        <v>9587370319</v>
       </c>
     </row>
     <row r="347">
@@ -17149,7 +17149,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>5544276181</v>
+        <v>5698045666</v>
       </c>
     </row>
     <row r="348">
@@ -17197,7 +17197,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>1907053758</v>
+        <v>7872674480</v>
       </c>
     </row>
     <row r="349">
@@ -17245,7 +17245,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>4148642294</v>
+        <v>3928594403</v>
       </c>
     </row>
     <row r="350">
@@ -17295,7 +17295,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>6482323382</v>
+        <v>9635589215</v>
       </c>
     </row>
     <row r="351">
@@ -17345,7 +17345,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>4946123798</v>
+        <v>7818808138</v>
       </c>
     </row>
     <row r="352">
@@ -17395,7 +17395,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>3384877276</v>
+        <v>2631443386</v>
       </c>
     </row>
     <row r="353">
@@ -17445,7 +17445,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>8640035674</v>
+        <v>6537142801</v>
       </c>
     </row>
     <row r="354">
@@ -17495,7 +17495,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>3266287466</v>
+        <v>8013025695</v>
       </c>
     </row>
     <row r="355">
@@ -17545,7 +17545,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>803069918</v>
+        <v>9866853022</v>
       </c>
     </row>
     <row r="356">
@@ -17593,7 +17593,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>435170318</v>
+        <v>8831122540</v>
       </c>
     </row>
     <row r="357">
@@ -17641,7 +17641,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>854283872</v>
+        <v>1611751768</v>
       </c>
     </row>
     <row r="358">
@@ -17689,7 +17689,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>9673737413</v>
+        <v>9700482160</v>
       </c>
     </row>
     <row r="359">
@@ -17737,7 +17737,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>1089821999</v>
+        <v>7753605806</v>
       </c>
     </row>
     <row r="360">
@@ -17785,7 +17785,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>7552602763</v>
+        <v>73941054</v>
       </c>
     </row>
     <row r="361">
@@ -17833,7 +17833,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>6890162060</v>
+        <v>1986544627</v>
       </c>
     </row>
     <row r="362">
@@ -17881,7 +17881,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>9677761063</v>
+        <v>2857743339</v>
       </c>
     </row>
     <row r="363">
@@ -17929,7 +17929,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>4935059341</v>
+        <v>4418625875</v>
       </c>
     </row>
     <row r="364">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>2522282225</v>
+        <v>5139752181</v>
       </c>
     </row>
     <row r="365">
@@ -18025,7 +18025,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>3375938497</v>
+        <v>1498296586</v>
       </c>
     </row>
     <row r="366">
@@ -18073,7 +18073,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>534945665</v>
+        <v>852514666</v>
       </c>
     </row>
     <row r="367">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>8728913247</v>
+        <v>4854675648</v>
       </c>
     </row>
     <row r="368">
@@ -18169,7 +18169,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>4214922516</v>
+        <v>7818464455</v>
       </c>
     </row>
     <row r="369">
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>180750364</v>
+        <v>9922588030</v>
       </c>
     </row>
     <row r="370">
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>1789695844</v>
+        <v>5583271533</v>
       </c>
     </row>
     <row r="371">
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>1085090031</v>
+        <v>3306226386</v>
       </c>
     </row>
     <row r="372">
@@ -18361,7 +18361,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>1098792485</v>
+        <v>5625072317</v>
       </c>
     </row>
     <row r="373">
@@ -18409,7 +18409,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>4591025811</v>
+        <v>8667051574</v>
       </c>
     </row>
     <row r="374">
@@ -18457,7 +18457,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>235961669</v>
+        <v>8139915950</v>
       </c>
     </row>
     <row r="375">
@@ -18505,7 +18505,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>8566606523</v>
+        <v>4930923520</v>
       </c>
     </row>
     <row r="376">
@@ -18553,7 +18553,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>6791024226</v>
+        <v>6663791683</v>
       </c>
     </row>
     <row r="377">
@@ -18601,7 +18601,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>7445557153</v>
+        <v>246695714</v>
       </c>
     </row>
     <row r="378">
@@ -18649,7 +18649,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>4419128378</v>
+        <v>9943451267</v>
       </c>
     </row>
     <row r="379">
@@ -18697,7 +18697,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>9786729166</v>
+        <v>3547988661</v>
       </c>
     </row>
     <row r="380">
@@ -18745,7 +18745,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>7063999036</v>
+        <v>2432806376</v>
       </c>
     </row>
     <row r="381">
@@ -18793,7 +18793,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>7760166990</v>
+        <v>7567277080</v>
       </c>
     </row>
     <row r="382">
@@ -18841,7 +18841,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>5951073313</v>
+        <v>8688511023</v>
       </c>
     </row>
     <row r="383">
@@ -18889,7 +18889,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>1688303325</v>
+        <v>7984101844</v>
       </c>
     </row>
     <row r="384">
@@ -18937,7 +18937,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2058249387</v>
+        <v>5562082286</v>
       </c>
     </row>
     <row r="385">
@@ -18985,7 +18985,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>4597485992</v>
+        <v>949926131</v>
       </c>
     </row>
     <row r="386">
@@ -19033,7 +19033,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>5028244947</v>
+        <v>5832515099</v>
       </c>
     </row>
     <row r="387">
@@ -19081,7 +19081,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>320910854</v>
+        <v>6473800482</v>
       </c>
     </row>
     <row r="388">
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>2695504344</v>
+        <v>8715156402</v>
       </c>
     </row>
     <row r="389">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>5841706865</v>
+        <v>4334512031</v>
       </c>
     </row>
     <row r="390">
@@ -19225,7 +19225,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>2062691923</v>
+        <v>6517996043</v>
       </c>
     </row>
     <row r="391">
@@ -19273,7 +19273,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>4827890016</v>
+        <v>5176582180</v>
       </c>
     </row>
     <row r="392">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>7762784748</v>
+        <v>6444673801</v>
       </c>
     </row>
     <row r="393">
@@ -19369,7 +19369,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>3251790240</v>
+        <v>7172866108</v>
       </c>
     </row>
     <row r="394">
@@ -19417,7 +19417,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2755380013</v>
+        <v>699515851</v>
       </c>
     </row>
     <row r="395">
@@ -19465,7 +19465,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>4122299438</v>
+        <v>8017448106</v>
       </c>
     </row>
     <row r="396">
@@ -19513,7 +19513,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2633855050</v>
+        <v>7094237793</v>
       </c>
     </row>
     <row r="397">
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>6971625969</v>
+        <v>3926587288</v>
       </c>
     </row>
     <row r="398">
@@ -19611,7 +19611,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>6454046556</v>
+        <v>4330314353</v>
       </c>
     </row>
     <row r="399">
@@ -19659,7 +19659,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>936080362</v>
+        <v>8930120202</v>
       </c>
     </row>
     <row r="400">
@@ -19707,7 +19707,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>285218227</v>
+        <v>2854542645</v>
       </c>
     </row>
     <row r="401">
@@ -19755,7 +19755,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1496025598</v>
+        <v>7910974417</v>
       </c>
     </row>
     <row r="402">
@@ -19803,7 +19803,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>8996380670</v>
+        <v>7919842221</v>
       </c>
     </row>
     <row r="403">
@@ -19851,7 +19851,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>3823031555</v>
+        <v>5509541795</v>
       </c>
     </row>
     <row r="404">
@@ -19899,7 +19899,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>3601160610</v>
+        <v>4400944787</v>
       </c>
     </row>
     <row r="405">
@@ -19947,7 +19947,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>8297593047</v>
+        <v>8730871715</v>
       </c>
     </row>
     <row r="406">
@@ -19995,7 +19995,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>8069684611</v>
+        <v>6224386981</v>
       </c>
     </row>
     <row r="407">
@@ -20043,7 +20043,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>9857459488</v>
+        <v>4025660945</v>
       </c>
     </row>
     <row r="408">
@@ -20091,7 +20091,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>9979322553</v>
+        <v>2639833006</v>
       </c>
     </row>
     <row r="409">
@@ -20139,7 +20139,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>7078266343</v>
+        <v>209939625</v>
       </c>
     </row>
     <row r="410">
@@ -20187,7 +20187,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>2856256811</v>
+        <v>7059618739</v>
       </c>
     </row>
     <row r="411">
@@ -20235,7 +20235,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>6544455756</v>
+        <v>4270505462</v>
       </c>
     </row>
     <row r="412">
@@ -20283,7 +20283,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>4109710663</v>
+        <v>4021066644</v>
       </c>
     </row>
     <row r="413">
@@ -20331,7 +20331,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>4621620910</v>
+        <v>1553142953</v>
       </c>
     </row>
     <row r="414">
@@ -20379,7 +20379,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>8304818220</v>
+        <v>2952199564</v>
       </c>
     </row>
     <row r="415">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3152756834</v>
+        <v>539042065</v>
       </c>
     </row>
     <row r="416">
@@ -20475,7 +20475,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>8711968997</v>
+        <v>5850099205</v>
       </c>
     </row>
     <row r="417">
@@ -20523,7 +20523,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1150647792</v>
+        <v>4811746109</v>
       </c>
     </row>
     <row r="418">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>6310955725</v>
+        <v>9054678767</v>
       </c>
     </row>
     <row r="419">
@@ -20619,7 +20619,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>7104184461</v>
+        <v>3648656319</v>
       </c>
     </row>
     <row r="420">
@@ -20667,7 +20667,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>3559494202</v>
+        <v>6152315386</v>
       </c>
     </row>
     <row r="421">
@@ -20715,7 +20715,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2136802641</v>
+        <v>3199231046</v>
       </c>
     </row>
     <row r="422">
@@ -20763,7 +20763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>8533171753</v>
+        <v>3528598110</v>
       </c>
     </row>
     <row r="423">
@@ -20811,7 +20811,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>9403693028</v>
+        <v>5079665921</v>
       </c>
     </row>
     <row r="424">
@@ -20859,7 +20859,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>6568869907</v>
+        <v>6078889536</v>
       </c>
     </row>
     <row r="425">
@@ -20907,7 +20907,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>5643937693</v>
+        <v>6623495207</v>
       </c>
     </row>
     <row r="426">
@@ -20957,7 +20957,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>4206566401</v>
+        <v>8632850886</v>
       </c>
     </row>
     <row r="427">
@@ -21005,7 +21005,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>9303583786</v>
+        <v>1764451175</v>
       </c>
     </row>
     <row r="428">
@@ -21053,7 +21053,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>9952813447</v>
+        <v>3825929777</v>
       </c>
     </row>
     <row r="429">
@@ -21101,7 +21101,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>7204934172</v>
+        <v>3215213638</v>
       </c>
     </row>
     <row r="430">
@@ -21149,7 +21149,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>6807316323</v>
+        <v>289709098</v>
       </c>
     </row>
     <row r="431">
@@ -21197,7 +21197,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>6993987163</v>
+        <v>556271898</v>
       </c>
     </row>
     <row r="432">
@@ -21245,7 +21245,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>6187689701</v>
+        <v>6141773726</v>
       </c>
     </row>
     <row r="433">
@@ -21293,7 +21293,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>8112198961</v>
+        <v>4342478174</v>
       </c>
     </row>
     <row r="434">
@@ -21341,7 +21341,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>6855801571</v>
+        <v>4023225736</v>
       </c>
     </row>
     <row r="435">
@@ -21389,7 +21389,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>8530474047</v>
+        <v>5923671636</v>
       </c>
     </row>
     <row r="436">
@@ -21437,7 +21437,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2791053490</v>
+        <v>318925482</v>
       </c>
     </row>
     <row r="437">
@@ -21485,7 +21485,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>1911586148</v>
+        <v>4031010269</v>
       </c>
     </row>
     <row r="438">
@@ -21533,7 +21533,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>6171154078</v>
+        <v>9799275943</v>
       </c>
     </row>
     <row r="439">
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>3205347620</v>
+        <v>7738980314</v>
       </c>
     </row>
     <row r="440">
@@ -21629,7 +21629,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>9597049439</v>
+        <v>512183551</v>
       </c>
     </row>
     <row r="441">
@@ -21675,7 +21675,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>9661326988</v>
+        <v>7178991434</v>
       </c>
     </row>
     <row r="442">
@@ -21723,7 +21723,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>7106711977</v>
+        <v>2880736812</v>
       </c>
     </row>
     <row r="443">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>5316254530</v>
+        <v>3208078624</v>
       </c>
     </row>
     <row r="444">
@@ -21819,7 +21819,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>8014760452</v>
+        <v>8380346982</v>
       </c>
     </row>
     <row r="445">
@@ -21867,7 +21867,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1479548829</v>
+        <v>5386547068</v>
       </c>
     </row>
     <row r="446">
@@ -21911,7 +21911,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>8446966573</v>
+        <v>3794650251</v>
       </c>
     </row>
     <row r="447">
@@ -21955,7 +21955,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>4699007423</v>
+        <v>201522351</v>
       </c>
     </row>
     <row r="448">
@@ -21999,7 +21999,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2777802949</v>
+        <v>913918304</v>
       </c>
     </row>
     <row r="449">
@@ -22043,7 +22043,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>3043578967</v>
+        <v>9412324530</v>
       </c>
     </row>
     <row r="450">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>7014703815</v>
+        <v>6119920539</v>
       </c>
     </row>
     <row r="451">
@@ -22131,7 +22131,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>123084232</v>
+        <v>3223376326</v>
       </c>
     </row>
     <row r="452">
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>6222493057</v>
+        <v>1496098110</v>
       </c>
     </row>
     <row r="453">
@@ -22219,7 +22219,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>1108018094</v>
+        <v>801132504</v>
       </c>
     </row>
     <row r="454">
@@ -22263,7 +22263,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>5615267665</v>
+        <v>1902574907</v>
       </c>
     </row>
     <row r="455">
@@ -22307,7 +22307,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>6328778678</v>
+        <v>7621890816</v>
       </c>
     </row>
     <row r="456">
@@ -22351,7 +22351,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>4274256228</v>
+        <v>7719841079</v>
       </c>
     </row>
     <row r="457">
@@ -22395,7 +22395,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>7789716046</v>
+        <v>9485047204</v>
       </c>
     </row>
     <row r="458">
@@ -22439,7 +22439,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>2558238140</v>
+        <v>8979126726</v>
       </c>
     </row>
     <row r="459">
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>6058282845</v>
+        <v>4633635009</v>
       </c>
     </row>
     <row r="460">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>9434051257</v>
+        <v>6554020106</v>
       </c>
     </row>
     <row r="461">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>7327827243</v>
+        <v>5688003586</v>
       </c>
     </row>
     <row r="462">
@@ -22615,7 +22615,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>3067228868</v>
+        <v>6760556249</v>
       </c>
     </row>
     <row r="463">
@@ -22659,7 +22659,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>6212369494</v>
+        <v>1833342363</v>
       </c>
     </row>
     <row r="464">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>4798414211</v>
+        <v>6830583943</v>
       </c>
     </row>
     <row r="465">
@@ -22747,7 +22747,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>5912124632</v>
+        <v>3646137564</v>
       </c>
     </row>
     <row r="466">
@@ -22791,7 +22791,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>7078883956</v>
+        <v>3066436478</v>
       </c>
     </row>
     <row r="467">
@@ -22835,7 +22835,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>6951218294</v>
+        <v>2520521221</v>
       </c>
     </row>
     <row r="468">
@@ -22879,7 +22879,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>8136604142</v>
+        <v>9747698130</v>
       </c>
     </row>
     <row r="469">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>3739202896</v>
+        <v>98273957</v>
       </c>
     </row>
     <row r="470">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>7414890218</v>
+        <v>9045155314</v>
       </c>
     </row>
     <row r="471">
@@ -23011,7 +23011,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>7660668226</v>
+        <v>429059715</v>
       </c>
     </row>
     <row r="472">
@@ -23055,7 +23055,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>3290214490</v>
+        <v>1351478891</v>
       </c>
     </row>
     <row r="473">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>4596757470</v>
+        <v>7651459756</v>
       </c>
     </row>
     <row r="474">
@@ -23143,7 +23143,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>9440259630</v>
+        <v>611443369</v>
       </c>
     </row>
     <row r="475">
@@ -23187,7 +23187,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>341665221</v>
+        <v>2787481707</v>
       </c>
     </row>
     <row r="476">
@@ -23233,7 +23233,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>5794994437</v>
+        <v>8185909853</v>
       </c>
     </row>
     <row r="477">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>7678091489</v>
+        <v>8065933180</v>
       </c>
     </row>
     <row r="478">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>137012652</v>
+        <v>2602874501</v>
       </c>
     </row>
     <row r="479">
@@ -23365,7 +23365,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>6336556351</v>
+        <v>6807323332</v>
       </c>
     </row>
     <row r="480">
@@ -23409,7 +23409,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>7957954596</v>
+        <v>9064822290</v>
       </c>
     </row>
     <row r="481">
@@ -23453,7 +23453,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>4608765478</v>
+        <v>7733310973</v>
       </c>
     </row>
     <row r="482">
@@ -23497,7 +23497,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>6493164231</v>
+        <v>6520757104</v>
       </c>
     </row>
     <row r="483">
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1550984632</v>
+        <v>7435639839</v>
       </c>
     </row>
     <row r="484">
@@ -23585,7 +23585,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2356702677</v>
+        <v>2158307702</v>
       </c>
     </row>
     <row r="485">
@@ -23629,7 +23629,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2197937689</v>
+        <v>7326968533</v>
       </c>
     </row>
     <row r="486">
@@ -23673,7 +23673,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>1045235292</v>
+        <v>891002507</v>
       </c>
     </row>
     <row r="487">
@@ -23717,7 +23717,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>7881901679</v>
+        <v>457654419</v>
       </c>
     </row>
     <row r="488">
@@ -23755,7 +23755,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>9771006760</v>
+        <v>293365890</v>
       </c>
     </row>
   </sheetData>
